--- a/纽北圈速榜.xlsx
+++ b/纽北圈速榜.xlsx
@@ -3902,7 +3902,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3933,17 +3933,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4097,7 +4086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4220,12 +4209,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4287,12 +4270,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4591,137 +4568,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4785,12 +4762,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4818,28 +4789,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4854,10 +4816,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5429,7 +5388,7 @@
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E521" sqref="E521"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P$1:DDV$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5"/>
@@ -5498,16 +5457,16 @@
       <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="14" t="s">
@@ -5643,7 +5602,7 @@
       <c r="N5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5687,7 +5646,7 @@
       <c r="N6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5717,7 +5676,7 @@
       <c r="H7" s="10">
         <v>0.86</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="25" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -5731,7 +5690,7 @@
       <c r="N7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5775,7 +5734,7 @@
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="27" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5821,7 +5780,7 @@
       <c r="N9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="28" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6049,7 +6008,7 @@
       <c r="D15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="52" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="18">
@@ -6273,7 +6232,7 @@
       <c r="H20" s="10">
         <v>0.8</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -6630,7 +6589,7 @@
       <c r="H29" s="10">
         <v>1.65</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="29" t="s">
         <v>111</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -6676,7 +6635,7 @@
       <c r="H30" s="10">
         <v>1.85</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="25" t="s">
         <v>117</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -6904,7 +6863,7 @@
       <c r="D36" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F36" s="18">
@@ -7150,7 +7109,7 @@
       <c r="H42" s="10">
         <v>1.9</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="29" t="s">
         <v>156</v>
       </c>
       <c r="J42" s="9" t="s">
@@ -7242,7 +7201,7 @@
       <c r="H44" s="10">
         <v>2.37</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="25" t="s">
         <v>164</v>
       </c>
       <c r="J44" s="9" t="s">
@@ -7445,7 +7404,7 @@
       <c r="H49" s="10">
         <v>2.36</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="25" t="s">
         <v>183</v>
       </c>
       <c r="J49" s="9" t="s">
@@ -7716,7 +7675,7 @@
       <c r="H56" s="10">
         <v>2.3</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="9" t="s">
         <v>206</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -7778,13 +7737,13 @@
       <c r="B58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="9" t="s">
         <v>209</v>
       </c>
       <c r="F58" s="18">
@@ -7796,10 +7755,10 @@
       <c r="H58" s="10">
         <v>3.25</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="21" t="s">
+      <c r="J58" s="9" t="s">
         <v>142</v>
       </c>
       <c r="K58" s="9">
@@ -7811,7 +7770,7 @@
       <c r="M58" s="10">
         <v>10.48</v>
       </c>
-      <c r="N58" s="32" t="s">
+      <c r="N58" s="7" t="s">
         <v>211</v>
       </c>
       <c r="O58" s="8"/>
@@ -7885,7 +7844,7 @@
       <c r="H60" s="10">
         <v>1.67</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I60" s="29" t="s">
         <v>214</v>
       </c>
       <c r="J60" s="9" t="s">
@@ -7968,7 +7927,7 @@
       <c r="H62" s="10">
         <v>4.77</v>
       </c>
-      <c r="I62" s="33" t="s">
+      <c r="I62" s="30" t="s">
         <v>220</v>
       </c>
       <c r="J62" s="9" t="s">
@@ -7987,16 +7946,16 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="9" t="s">
         <v>222</v>
       </c>
       <c r="F63" s="18">
@@ -8008,10 +7967,10 @@
       <c r="H63" s="10">
         <v>3.58</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="9" t="s">
         <v>85</v>
       </c>
       <c r="K63" s="9">
@@ -8023,10 +7982,10 @@
       <c r="M63" s="10">
         <v>10.82</v>
       </c>
-      <c r="N63" s="32" t="s">
+      <c r="N63" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="O63" s="35" t="s">
+      <c r="O63" s="8" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8056,7 +8015,7 @@
       <c r="H64" s="10">
         <v>2.99</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="32" t="s">
         <v>228</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -8093,7 +8052,7 @@
       <c r="H65" s="10">
         <v>1.63</v>
       </c>
-      <c r="I65" s="36" t="s">
+      <c r="I65" s="32" t="s">
         <v>230</v>
       </c>
       <c r="J65" s="9" t="s">
@@ -8139,7 +8098,7 @@
       <c r="H66" s="10">
         <v>2.96</v>
       </c>
-      <c r="I66" s="36" t="s">
+      <c r="I66" s="32" t="s">
         <v>232</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -8182,7 +8141,7 @@
       <c r="H67" s="10">
         <v>2.22</v>
       </c>
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="32" t="s">
         <v>235</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -8225,7 +8184,7 @@
       <c r="H68" s="10">
         <v>2</v>
       </c>
-      <c r="I68" s="27" t="s">
+      <c r="I68" s="25" t="s">
         <v>117</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -8299,7 +8258,7 @@
       <c r="D70" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="9" t="s">
         <v>241</v>
       </c>
       <c r="F70" s="18">
@@ -8311,10 +8270,10 @@
       <c r="H70" s="10">
         <v>3.31</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="21" t="s">
+      <c r="J70" s="9" t="s">
         <v>142</v>
       </c>
       <c r="K70" s="9">
@@ -8785,13 +8744,13 @@
       <c r="B82" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="9" t="s">
         <v>267</v>
       </c>
       <c r="F82" s="18">
@@ -8806,7 +8765,7 @@
       <c r="I82" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J82" s="21" t="s">
+      <c r="J82" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K82" s="9">
@@ -8846,7 +8805,7 @@
       <c r="H83" s="10">
         <v>3.9</v>
       </c>
-      <c r="I83" s="27" t="s">
+      <c r="I83" s="25" t="s">
         <v>269</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -8889,7 +8848,7 @@
       <c r="H84" s="10">
         <v>2.16</v>
       </c>
-      <c r="I84" s="27" t="s">
+      <c r="I84" s="25" t="s">
         <v>273</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -9132,7 +9091,7 @@
       <c r="H90" s="10">
         <v>2.6</v>
       </c>
-      <c r="I90" s="27" t="s">
+      <c r="I90" s="25" t="s">
         <v>292</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -9704,7 +9663,7 @@
       <c r="H104" s="10">
         <v>1.91</v>
       </c>
-      <c r="I104" s="31" t="s">
+      <c r="I104" s="29" t="s">
         <v>333</v>
       </c>
       <c r="J104" s="9" t="s">
@@ -9975,7 +9934,7 @@
       <c r="D111" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="33" t="s">
         <v>353</v>
       </c>
       <c r="F111" s="18">
@@ -10064,7 +10023,7 @@
       <c r="H113" s="10">
         <v>2.26</v>
       </c>
-      <c r="I113" s="27" t="s">
+      <c r="I113" s="25" t="s">
         <v>360</v>
       </c>
       <c r="J113" s="9" t="s">
@@ -10198,7 +10157,7 @@
       <c r="H116" s="10">
         <v>2.9</v>
       </c>
-      <c r="I116" s="31" t="s">
+      <c r="I116" s="29" t="s">
         <v>369</v>
       </c>
       <c r="J116" s="9" t="s">
@@ -10349,7 +10308,7 @@
       <c r="D120" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="9" t="s">
         <v>380</v>
       </c>
       <c r="F120" s="18">
@@ -10457,7 +10416,7 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -10500,7 +10459,7 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -10546,7 +10505,7 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -10592,7 +10551,7 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -10640,7 +10599,7 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -10861,7 +10820,7 @@
       <c r="H132" s="10">
         <v>2.63</v>
       </c>
-      <c r="I132" s="31" t="s">
+      <c r="I132" s="29" t="s">
         <v>411</v>
       </c>
       <c r="J132" s="9" t="s">
@@ -11141,7 +11100,7 @@
       <c r="H139" s="10">
         <v>1.87</v>
       </c>
-      <c r="I139" s="27" t="s">
+      <c r="I139" s="25" t="s">
         <v>430</v>
       </c>
       <c r="J139" s="9" t="s">
@@ -11394,7 +11353,7 @@
       <c r="H145" s="10">
         <v>3.21</v>
       </c>
-      <c r="I145" s="31" t="s">
+      <c r="I145" s="29" t="s">
         <v>445</v>
       </c>
       <c r="J145" s="9" t="s">
@@ -11765,7 +11724,7 @@
       <c r="H154" s="10">
         <v>2.2</v>
       </c>
-      <c r="I154" s="31" t="s">
+      <c r="I154" s="29" t="s">
         <v>464</v>
       </c>
       <c r="J154" s="9" t="s">
@@ -12371,16 +12330,16 @@
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="B169" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C169" s="21" t="s">
+      <c r="B169" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="9" t="s">
         <v>502</v>
       </c>
       <c r="F169" s="18">
@@ -12392,10 +12351,10 @@
       <c r="H169" s="10">
         <v>4.69</v>
       </c>
-      <c r="I169" s="21" t="s">
+      <c r="I169" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="J169" s="21" t="s">
+      <c r="J169" s="9" t="s">
         <v>142</v>
       </c>
       <c r="K169" s="9">
@@ -12450,7 +12409,7 @@
       <c r="N170" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O170" s="35" t="s">
+      <c r="O170" s="8" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12643,7 +12602,7 @@
       <c r="H175" s="10">
         <v>3.84</v>
       </c>
-      <c r="I175" s="31" t="s">
+      <c r="I175" s="29" t="s">
         <v>516</v>
       </c>
       <c r="J175" s="9" t="s">
@@ -12923,7 +12882,7 @@
       <c r="H182" s="10">
         <v>4.57</v>
       </c>
-      <c r="I182" s="40" t="s">
+      <c r="I182" s="35" t="s">
         <v>534</v>
       </c>
       <c r="J182" s="9" t="s">
@@ -13457,7 +13416,7 @@
       <c r="H195" s="10">
         <v>5.37</v>
       </c>
-      <c r="I195" s="40" t="s">
+      <c r="I195" s="35" t="s">
         <v>568</v>
       </c>
       <c r="J195" s="9" t="s">
@@ -13537,7 +13496,7 @@
       <c r="H197" s="10">
         <v>5.71</v>
       </c>
-      <c r="I197" s="21" t="s">
+      <c r="I197" s="9" t="s">
         <v>571</v>
       </c>
       <c r="J197" s="9" t="s">
@@ -13617,7 +13576,7 @@
       <c r="H199" s="10">
         <v>5.53</v>
       </c>
-      <c r="I199" s="27" t="s">
+      <c r="I199" s="25" t="s">
         <v>575</v>
       </c>
       <c r="J199" s="9" t="s">
@@ -13636,7 +13595,7 @@
         <f t="shared" si="5"/>
         <v>198</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C200" s="9" t="s">
@@ -13700,7 +13659,7 @@
       <c r="H201" s="10">
         <v>5.41</v>
       </c>
-      <c r="I201" s="31" t="s">
+      <c r="I201" s="29" t="s">
         <v>580</v>
       </c>
       <c r="J201" s="9" t="s">
@@ -13722,7 +13681,7 @@
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C202" s="9" t="s">
@@ -13765,7 +13724,7 @@
         <f t="shared" si="5"/>
         <v>201</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C203" s="9" t="s">
@@ -14155,7 +14114,7 @@
       <c r="H212" s="10">
         <v>4.78</v>
       </c>
-      <c r="I212" s="31" t="s">
+      <c r="I212" s="29" t="s">
         <v>610</v>
       </c>
       <c r="J212" s="9" t="s">
@@ -14201,7 +14160,7 @@
       <c r="H213" s="10">
         <v>4.86</v>
       </c>
-      <c r="I213" s="27" t="s">
+      <c r="I213" s="25" t="s">
         <v>614</v>
       </c>
       <c r="J213" s="9" t="s">
@@ -14521,7 +14480,7 @@
       <c r="H221" s="10">
         <v>5.73</v>
       </c>
-      <c r="I221" s="43" t="s">
+      <c r="I221" s="38" t="s">
         <v>633</v>
       </c>
       <c r="J221" s="9" t="s">
@@ -14563,7 +14522,7 @@
       <c r="H222" s="10">
         <v>6.44</v>
       </c>
-      <c r="I222" s="40" t="s">
+      <c r="I222" s="35" t="s">
         <v>636</v>
       </c>
       <c r="J222" s="9" t="s">
@@ -14603,7 +14562,7 @@
       <c r="H223" s="10">
         <v>3.84</v>
       </c>
-      <c r="I223" s="43" t="s">
+      <c r="I223" s="38" t="s">
         <v>638</v>
       </c>
       <c r="J223" s="9" t="s">
@@ -14648,7 +14607,7 @@
       <c r="H224" s="10">
         <v>4.6</v>
       </c>
-      <c r="I224" s="43" t="s">
+      <c r="I224" s="38" t="s">
         <v>641</v>
       </c>
       <c r="J224" s="9" t="s">
@@ -14688,7 +14647,7 @@
       <c r="H225" s="10">
         <v>8.56</v>
       </c>
-      <c r="I225" s="40" t="s">
+      <c r="I225" s="35" t="s">
         <v>643</v>
       </c>
       <c r="J225" s="9" t="s">
@@ -14728,7 +14687,7 @@
       <c r="H226" s="10">
         <v>4.91</v>
       </c>
-      <c r="I226" s="31" t="s">
+      <c r="I226" s="29" t="s">
         <v>645</v>
       </c>
       <c r="J226" s="9" t="s">
@@ -14878,7 +14837,7 @@
         <f t="shared" ref="A230:A242" si="6">A229+1</f>
         <v>228</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B230" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C230" s="9" t="s">
@@ -14998,7 +14957,7 @@
         <f t="shared" si="6"/>
         <v>231</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C233" s="9" t="s">
@@ -15038,7 +14997,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C234" s="9" t="s">
@@ -15096,7 +15055,7 @@
       <c r="H235" s="10">
         <v>4.77</v>
       </c>
-      <c r="I235" s="21" t="s">
+      <c r="I235" s="9" t="s">
         <v>668</v>
       </c>
       <c r="J235" s="9" t="s">
@@ -15229,7 +15188,7 @@
       <c r="H238" s="10">
         <v>5.69</v>
       </c>
-      <c r="I238" s="40" t="s">
+      <c r="I238" s="35" t="s">
         <v>568</v>
       </c>
       <c r="J238" s="9" t="s">
@@ -15435,7 +15394,7 @@
       <c r="H243" s="10">
         <v>3.86</v>
       </c>
-      <c r="I243" s="40" t="s">
+      <c r="I243" s="35" t="s">
         <v>682</v>
       </c>
       <c r="J243" s="9" t="s">
@@ -15543,7 +15502,7 @@
       <c r="C246" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D246" s="42" t="s">
+      <c r="D246" s="37" t="s">
         <v>689</v>
       </c>
       <c r="E246" s="9" t="s">
@@ -15600,7 +15559,7 @@
       <c r="H247" s="10">
         <v>6.6</v>
       </c>
-      <c r="I247" s="40" t="s">
+      <c r="I247" s="35" t="s">
         <v>568</v>
       </c>
       <c r="J247" s="9" t="s">
@@ -15643,7 +15602,7 @@
       <c r="H248" s="10">
         <v>3.89</v>
       </c>
-      <c r="I248" s="31" t="s">
+      <c r="I248" s="29" t="s">
         <v>694</v>
       </c>
       <c r="J248" s="9" t="s">
@@ -15775,7 +15734,7 @@
       <c r="H251" s="10">
         <v>5.28</v>
       </c>
-      <c r="I251" s="31" t="s">
+      <c r="I251" s="29" t="s">
         <v>701</v>
       </c>
       <c r="J251" s="9" t="s">
@@ -16211,7 +16170,7 @@
       <c r="H261" s="10">
         <v>5.51</v>
       </c>
-      <c r="I261" s="40" t="s">
+      <c r="I261" s="35" t="s">
         <v>722</v>
       </c>
       <c r="J261" s="9" t="s">
@@ -16411,7 +16370,7 @@
       <c r="H266" s="10">
         <v>5.63</v>
       </c>
-      <c r="I266" s="40" t="s">
+      <c r="I266" s="35" t="s">
         <v>722</v>
       </c>
       <c r="J266" s="9" t="s">
@@ -16608,7 +16567,7 @@
       <c r="H271" s="10">
         <v>7.03</v>
       </c>
-      <c r="I271" s="40" t="s">
+      <c r="I271" s="35" t="s">
         <v>568</v>
       </c>
       <c r="J271" s="9" t="s">
@@ -17352,7 +17311,7 @@
         <f t="shared" si="7"/>
         <v>288</v>
       </c>
-      <c r="B290" s="41" t="s">
+      <c r="B290" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C290" s="9" t="s">
@@ -17410,7 +17369,7 @@
       <c r="H291" s="10">
         <v>4.72</v>
       </c>
-      <c r="I291" s="27" t="s">
+      <c r="I291" s="25" t="s">
         <v>790</v>
       </c>
       <c r="J291" s="9" t="s">
@@ -17613,7 +17572,7 @@
       <c r="H296" s="10">
         <v>7.27</v>
       </c>
-      <c r="I296" s="40" t="s">
+      <c r="I296" s="35" t="s">
         <v>802</v>
       </c>
       <c r="J296" s="9" t="s">
@@ -17690,7 +17649,7 @@
       <c r="H298" s="10">
         <v>8.47</v>
       </c>
-      <c r="I298" s="40" t="s">
+      <c r="I298" s="35" t="s">
         <v>806</v>
       </c>
       <c r="J298" s="9" t="s">
@@ -17859,7 +17818,7 @@
       <c r="H302" s="10">
         <v>8.57</v>
       </c>
-      <c r="I302" s="40" t="s">
+      <c r="I302" s="35" t="s">
         <v>814</v>
       </c>
       <c r="J302" s="9" t="s">
@@ -18141,7 +18100,7 @@
       <c r="H309" s="10">
         <v>6.07</v>
       </c>
-      <c r="I309" s="31" t="s">
+      <c r="I309" s="29" t="s">
         <v>829</v>
       </c>
       <c r="J309" s="9" t="s">
@@ -18301,7 +18260,7 @@
       <c r="H313" s="10">
         <v>9.11</v>
       </c>
-      <c r="I313" s="40" t="s">
+      <c r="I313" s="35" t="s">
         <v>839</v>
       </c>
       <c r="J313" s="9" t="s">
@@ -18338,7 +18297,7 @@
       <c r="H314" s="10">
         <v>7.53</v>
       </c>
-      <c r="I314" s="43" t="s">
+      <c r="I314" s="38" t="s">
         <v>824</v>
       </c>
       <c r="J314" s="9" t="s">
@@ -18378,7 +18337,7 @@
       <c r="H315" s="10">
         <v>8.3</v>
       </c>
-      <c r="I315" s="43" t="s">
+      <c r="I315" s="38" t="s">
         <v>842</v>
       </c>
       <c r="J315" s="9" t="s">
@@ -18421,7 +18380,7 @@
       <c r="H316" s="10">
         <v>6.87</v>
       </c>
-      <c r="I316" s="31" t="s">
+      <c r="I316" s="29" t="s">
         <v>844</v>
       </c>
       <c r="J316" s="9" t="s">
@@ -18467,7 +18426,7 @@
       <c r="H317" s="10">
         <v>9.23</v>
       </c>
-      <c r="I317" s="43" t="s">
+      <c r="I317" s="38" t="s">
         <v>847</v>
       </c>
       <c r="J317" s="9" t="s">
@@ -18624,7 +18583,7 @@
       <c r="H321" s="10">
         <v>9.93</v>
       </c>
-      <c r="I321" s="40" t="s">
+      <c r="I321" s="35" t="s">
         <v>854</v>
       </c>
       <c r="J321" s="9" t="s">
@@ -18704,7 +18663,7 @@
       <c r="H323" s="10">
         <v>8.83</v>
       </c>
-      <c r="I323" s="27" t="s">
+      <c r="I323" s="25" t="s">
         <v>859</v>
       </c>
       <c r="J323" s="9" t="s">
@@ -19067,7 +19026,7 @@
       <c r="H332" s="10">
         <v>6.36</v>
       </c>
-      <c r="I332" s="40" t="s">
+      <c r="I332" s="35" t="s">
         <v>880</v>
       </c>
       <c r="J332" s="9" t="s">
@@ -19193,7 +19152,7 @@
       <c r="H335" s="10">
         <v>4.01</v>
       </c>
-      <c r="I335" s="27" t="s">
+      <c r="I335" s="25" t="s">
         <v>887</v>
       </c>
       <c r="J335" s="9" t="s">
@@ -19233,7 +19192,7 @@
       <c r="H336" s="10">
         <v>10.42</v>
       </c>
-      <c r="I336" s="43" t="s">
+      <c r="I336" s="38" t="s">
         <v>889</v>
       </c>
       <c r="J336" s="9" t="s">
@@ -19275,7 +19234,7 @@
       <c r="H337" s="10">
         <v>10.13</v>
       </c>
-      <c r="I337" s="43" t="s">
+      <c r="I337" s="38" t="s">
         <v>783</v>
       </c>
       <c r="J337" s="9" t="s">
@@ -19315,7 +19274,7 @@
       <c r="H338" s="10">
         <v>11.06</v>
       </c>
-      <c r="I338" s="40" t="s">
+      <c r="I338" s="35" t="s">
         <v>892</v>
       </c>
       <c r="J338" s="9" t="s">
@@ -19355,7 +19314,7 @@
       <c r="H339" s="10">
         <v>6.23</v>
       </c>
-      <c r="I339" s="31" t="s">
+      <c r="I339" s="29" t="s">
         <v>894</v>
       </c>
       <c r="J339" s="9" t="s">
@@ -19736,7 +19695,7 @@
       <c r="H348" s="10">
         <v>9.06</v>
       </c>
-      <c r="I348" s="31" t="s">
+      <c r="I348" s="29" t="s">
         <v>915</v>
       </c>
       <c r="J348" s="9" t="s">
@@ -19776,7 +19735,7 @@
       <c r="H349" s="10">
         <v>11.6</v>
       </c>
-      <c r="I349" s="27" t="s">
+      <c r="I349" s="25" t="s">
         <v>918</v>
       </c>
       <c r="J349" s="9" t="s">
@@ -19856,7 +19815,7 @@
       <c r="H351" s="10">
         <v>9.83</v>
       </c>
-      <c r="I351" s="40" t="s">
+      <c r="I351" s="35" t="s">
         <v>922</v>
       </c>
       <c r="J351" s="9" t="s">
@@ -19893,7 +19852,7 @@
       <c r="H352" s="10">
         <v>5.5</v>
       </c>
-      <c r="I352" s="27" t="s">
+      <c r="I352" s="25" t="s">
         <v>925</v>
       </c>
       <c r="J352" s="9" t="s">
@@ -20548,7 +20507,7 @@
       <c r="H368" s="10">
         <v>10.47</v>
       </c>
-      <c r="I368" s="40" t="s">
+      <c r="I368" s="35" t="s">
         <v>956</v>
       </c>
       <c r="J368" s="9" t="s">
@@ -20717,7 +20676,7 @@
       <c r="H372" s="10">
         <v>12.63</v>
       </c>
-      <c r="I372" s="40" t="s">
+      <c r="I372" s="35" t="s">
         <v>922</v>
       </c>
       <c r="J372" s="9" t="s">
@@ -20733,7 +20692,7 @@
         <f t="shared" si="10"/>
         <v>371</v>
       </c>
-      <c r="B373" s="44" t="s">
+      <c r="B373" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C373" s="9" t="s">
@@ -20754,7 +20713,7 @@
       <c r="H373" s="10">
         <v>11.47</v>
       </c>
-      <c r="I373" s="43" t="s">
+      <c r="I373" s="38" t="s">
         <v>965</v>
       </c>
       <c r="J373" s="9" t="s">
@@ -20865,7 +20824,7 @@
       <c r="H376" s="10">
         <v>9.07</v>
       </c>
-      <c r="I376" s="40" t="s">
+      <c r="I376" s="35" t="s">
         <v>971</v>
       </c>
       <c r="J376" s="9" t="s">
@@ -20942,7 +20901,7 @@
       <c r="H378" s="10">
         <v>5.46</v>
       </c>
-      <c r="I378" s="31" t="s">
+      <c r="I378" s="29" t="s">
         <v>977</v>
       </c>
       <c r="J378" s="9" t="s">
@@ -20988,7 +20947,7 @@
       <c r="H379" s="10">
         <v>13.4</v>
       </c>
-      <c r="I379" s="40" t="s">
+      <c r="I379" s="35" t="s">
         <v>980</v>
       </c>
       <c r="J379" s="9" t="s">
@@ -21004,7 +20963,7 @@
         <f t="shared" si="10"/>
         <v>378</v>
       </c>
-      <c r="B380" s="38" t="s">
+      <c r="B380" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C380" s="9" t="s">
@@ -21102,7 +21061,7 @@
       <c r="H382" s="10">
         <v>8.09</v>
       </c>
-      <c r="I382" s="40" t="s">
+      <c r="I382" s="35" t="s">
         <v>986</v>
       </c>
       <c r="J382" s="9" t="s">
@@ -21139,7 +21098,7 @@
       <c r="H383" s="10">
         <v>12.9</v>
       </c>
-      <c r="I383" s="40" t="s">
+      <c r="I383" s="35" t="s">
         <v>988</v>
       </c>
       <c r="J383" s="9" t="s">
@@ -21179,7 +21138,7 @@
       <c r="H384" s="10">
         <v>9.6</v>
       </c>
-      <c r="I384" s="40" t="s">
+      <c r="I384" s="35" t="s">
         <v>990</v>
       </c>
       <c r="J384" s="9" t="s">
@@ -21222,7 +21181,7 @@
       <c r="H385" s="10">
         <v>8.49</v>
       </c>
-      <c r="I385" s="27" t="s">
+      <c r="I385" s="25" t="s">
         <v>993</v>
       </c>
       <c r="J385" s="9" t="s">
@@ -21299,7 +21258,7 @@
       <c r="H387" s="10">
         <v>12.36</v>
       </c>
-      <c r="I387" s="40" t="s">
+      <c r="I387" s="35" t="s">
         <v>997</v>
       </c>
       <c r="J387" s="9" t="s">
@@ -21416,7 +21375,7 @@
       <c r="H390" s="10">
         <v>9.47</v>
       </c>
-      <c r="I390" s="40" t="s">
+      <c r="I390" s="35" t="s">
         <v>1003</v>
       </c>
       <c r="J390" s="9" t="s">
@@ -21622,7 +21581,7 @@
       <c r="H395" s="10">
         <v>13.74</v>
       </c>
-      <c r="I395" s="31" t="s">
+      <c r="I395" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="J395" s="9" t="s">
@@ -21756,7 +21715,7 @@
       <c r="H398" s="10">
         <v>12.03</v>
       </c>
-      <c r="I398" s="40" t="s">
+      <c r="I398" s="35" t="s">
         <v>1020</v>
       </c>
       <c r="J398" s="9" t="s">
@@ -22652,7 +22611,7 @@
       <c r="H420" s="10">
         <v>15.07</v>
       </c>
-      <c r="I420" s="40" t="s">
+      <c r="I420" s="35" t="s">
         <v>1067</v>
       </c>
       <c r="J420" s="9" t="s">
@@ -23116,7 +23075,7 @@
       <c r="H431" s="10">
         <v>15.67</v>
       </c>
-      <c r="I431" s="40" t="s">
+      <c r="I431" s="35" t="s">
         <v>1093</v>
       </c>
       <c r="J431" s="9" t="s">
@@ -23156,7 +23115,7 @@
       <c r="H432" s="10">
         <v>14.1</v>
       </c>
-      <c r="I432" s="43" t="s">
+      <c r="I432" s="38" t="s">
         <v>1074</v>
       </c>
       <c r="J432" s="9" t="s">
@@ -23196,7 +23155,7 @@
       <c r="H433" s="10">
         <v>13.07</v>
       </c>
-      <c r="I433" s="43" t="s">
+      <c r="I433" s="38" t="s">
         <v>1041</v>
       </c>
       <c r="J433" s="9" t="s">
@@ -23239,7 +23198,7 @@
       <c r="H434" s="10">
         <v>12.06</v>
       </c>
-      <c r="I434" s="43" t="s">
+      <c r="I434" s="38" t="s">
         <v>1098</v>
       </c>
       <c r="J434" s="9" t="s">
@@ -23282,7 +23241,7 @@
       <c r="H435" s="10">
         <v>11.33</v>
       </c>
-      <c r="I435" s="43" t="s">
+      <c r="I435" s="38" t="s">
         <v>1100</v>
       </c>
       <c r="J435" s="9" t="s">
@@ -23319,7 +23278,7 @@
       <c r="H436" s="10">
         <v>18.67</v>
       </c>
-      <c r="I436" s="43" t="s">
+      <c r="I436" s="38" t="s">
         <v>1102</v>
       </c>
       <c r="J436" s="9" t="s">
@@ -23362,7 +23321,7 @@
       <c r="H437" s="10">
         <v>16.56</v>
       </c>
-      <c r="I437" s="43" t="s">
+      <c r="I437" s="38" t="s">
         <v>1085</v>
       </c>
       <c r="J437" s="9" t="s">
@@ -23402,7 +23361,7 @@
       <c r="H438" s="10">
         <v>15.96</v>
       </c>
-      <c r="I438" s="40" t="s">
+      <c r="I438" s="35" t="s">
         <v>988</v>
       </c>
       <c r="J438" s="9" t="s">
@@ -23442,7 +23401,7 @@
       <c r="H439" s="10">
         <v>12.45</v>
       </c>
-      <c r="I439" s="43" t="s">
+      <c r="I439" s="38" t="s">
         <v>1106</v>
       </c>
       <c r="J439" s="9" t="s">
@@ -23485,7 +23444,7 @@
       <c r="H440" s="10">
         <v>14.57</v>
       </c>
-      <c r="I440" s="43" t="s">
+      <c r="I440" s="38" t="s">
         <v>1108</v>
       </c>
       <c r="J440" s="9" t="s">
@@ -23525,7 +23484,7 @@
       <c r="H441" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="I441" s="27" t="s">
+      <c r="I441" s="25" t="s">
         <v>1112</v>
       </c>
       <c r="J441" s="9" t="s">
@@ -23716,7 +23675,7 @@
       <c r="H446" s="10">
         <v>11.13</v>
       </c>
-      <c r="I446" s="27" t="s">
+      <c r="I446" s="25" t="s">
         <v>1125</v>
       </c>
       <c r="J446" s="9" t="s">
@@ -23833,7 +23792,7 @@
       <c r="H449" s="10">
         <v>12.1</v>
       </c>
-      <c r="I449" s="27" t="s">
+      <c r="I449" s="25" t="s">
         <v>1135</v>
       </c>
       <c r="J449" s="9" t="s">
@@ -24279,7 +24238,7 @@
       <c r="H460" s="10">
         <v>23.33</v>
       </c>
-      <c r="I460" s="40" t="s">
+      <c r="I460" s="35" t="s">
         <v>1160</v>
       </c>
       <c r="J460" s="9" t="s">
@@ -24427,7 +24386,7 @@
         <f t="shared" si="11"/>
         <v>462</v>
       </c>
-      <c r="B464" s="41" t="s">
+      <c r="B464" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C464" s="9" t="s">
@@ -24639,7 +24598,7 @@
       <c r="H469" s="10">
         <v>21.27</v>
       </c>
-      <c r="I469" s="40" t="s">
+      <c r="I469" s="35" t="s">
         <v>1179</v>
       </c>
       <c r="J469" s="9" t="s">
@@ -24830,7 +24789,7 @@
       <c r="H474" s="10">
         <v>30.13</v>
       </c>
-      <c r="I474" s="40" t="s">
+      <c r="I474" s="35" t="s">
         <v>1190</v>
       </c>
       <c r="J474" s="9" t="s">
@@ -24873,7 +24832,7 @@
       <c r="H475" s="10">
         <v>31.79</v>
       </c>
-      <c r="I475" s="40" t="s">
+      <c r="I475" s="35" t="s">
         <v>1192</v>
       </c>
       <c r="J475" s="9" t="s">
@@ -24916,7 +24875,7 @@
       <c r="H476" s="10">
         <v>32.43</v>
       </c>
-      <c r="I476" s="40" t="s">
+      <c r="I476" s="35" t="s">
         <v>1194</v>
       </c>
       <c r="J476" s="9" t="s">
@@ -24975,7 +24934,7 @@
         <f t="shared" si="11"/>
         <v>476</v>
       </c>
-      <c r="B478" s="41" t="s">
+      <c r="B478" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C478" s="9" t="s">
@@ -25116,7 +25075,7 @@
       <c r="H481" s="10">
         <v>41.43</v>
       </c>
-      <c r="I481" s="40" t="s">
+      <c r="I481" s="35" t="s">
         <v>1208</v>
       </c>
       <c r="J481" s="9" t="s">
@@ -25178,13 +25137,13 @@
       <c r="B483" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C483" s="21" t="s">
+      <c r="C483" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D483" s="21" t="s">
+      <c r="D483" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="E483" s="21" t="s">
+      <c r="E483" s="9" t="s">
         <v>1212</v>
       </c>
       <c r="F483" s="18">
@@ -25196,10 +25155,10 @@
       <c r="H483" s="10">
         <v>28.43</v>
       </c>
-      <c r="I483" s="21" t="s">
+      <c r="I483" s="9" t="s">
         <v>1213</v>
       </c>
-      <c r="J483" s="21" t="s">
+      <c r="J483" s="9" t="s">
         <v>130</v>
       </c>
       <c r="K483" s="9">
@@ -25239,7 +25198,7 @@
       <c r="H484" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="I484" s="52" t="s">
+      <c r="I484" s="46" t="s">
         <v>1215</v>
       </c>
       <c r="J484" s="9" t="s">
@@ -25375,7 +25334,7 @@
         <f t="shared" si="11"/>
         <v>486</v>
       </c>
-      <c r="B488" s="44" t="s">
+      <c r="B488" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C488" s="9" t="s">
@@ -25396,7 +25355,7 @@
       <c r="H488" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="I488" s="40" t="s">
+      <c r="I488" s="35" t="s">
         <v>1225</v>
       </c>
       <c r="J488" s="9" t="s">
@@ -25415,7 +25374,7 @@
         <f t="shared" si="11"/>
         <v>487</v>
       </c>
-      <c r="B489" s="44" t="s">
+      <c r="B489" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C489" s="9" t="s">
@@ -25596,7 +25555,7 @@
       <c r="H493" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="I493" s="40" t="s">
+      <c r="I493" s="35" t="s">
         <v>1242</v>
       </c>
       <c r="J493" s="9" t="s">
@@ -25698,7 +25657,7 @@
       <c r="N495" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O495" s="53"/>
+      <c r="O495" s="47"/>
     </row>
     <row r="496" customFormat="1" spans="1:15">
       <c r="A496" s="7">
@@ -25742,7 +25701,7 @@
       <c r="N496" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O496" s="53"/>
+      <c r="O496" s="47"/>
     </row>
     <row r="497" customFormat="1" spans="1:15">
       <c r="A497" s="7">
@@ -25786,7 +25745,7 @@
       <c r="N497" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O497" s="53"/>
+      <c r="O497" s="47"/>
     </row>
     <row r="498" customFormat="1" spans="1:15">
       <c r="A498" s="7">
@@ -25814,7 +25773,7 @@
       <c r="H498" s="10" t="s">
         <v>1255</v>
       </c>
-      <c r="I498" s="40" t="s">
+      <c r="I498" s="35" t="s">
         <v>1256</v>
       </c>
       <c r="J498" s="9" t="s">
@@ -25826,27 +25785,27 @@
       <c r="L498" s="9">
         <v>6531</v>
       </c>
-      <c r="M498" s="54">
+      <c r="M498" s="48">
         <v>21.76</v>
       </c>
       <c r="N498" s="8"/>
-      <c r="O498" s="53"/>
+      <c r="O498" s="47"/>
     </row>
     <row r="499" customFormat="1" spans="1:15">
       <c r="A499" s="7">
         <f t="shared" si="11"/>
         <v>497</v>
       </c>
-      <c r="B499" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C499" s="21" t="s">
+      <c r="B499" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C499" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="D499" s="21" t="s">
+      <c r="D499" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="E499" s="21" t="s">
+      <c r="E499" s="9" t="s">
         <v>1259</v>
       </c>
       <c r="F499" s="18">
@@ -25855,13 +25814,13 @@
       <c r="G499" s="9">
         <v>20.8</v>
       </c>
-      <c r="H499" s="45" t="s">
+      <c r="H499" s="10" t="s">
         <v>1237</v>
       </c>
-      <c r="I499" s="21" t="s">
+      <c r="I499" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="J499" s="21" t="s">
+      <c r="J499" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K499" s="9">
@@ -25870,13 +25829,13 @@
       <c r="L499" s="9">
         <v>847</v>
       </c>
-      <c r="M499" s="54">
+      <c r="M499" s="48">
         <v>20.5</v>
       </c>
       <c r="N499" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O499" s="53"/>
+      <c r="O499" s="47"/>
     </row>
     <row r="500" customFormat="1" spans="1:15">
       <c r="A500" s="7">
@@ -25904,7 +25863,7 @@
       <c r="H500" s="10" t="s">
         <v>1262</v>
       </c>
-      <c r="I500" s="30" t="s">
+      <c r="I500" s="28" t="s">
         <v>1263</v>
       </c>
       <c r="J500" s="9" t="s">
@@ -25916,13 +25875,13 @@
       <c r="L500" s="9">
         <v>1976</v>
       </c>
-      <c r="M500" s="54">
+      <c r="M500" s="48">
         <v>21.61</v>
       </c>
       <c r="N500" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O500" s="53"/>
+      <c r="O500" s="47"/>
     </row>
     <row r="501" customFormat="1" spans="1:15">
       <c r="A501" s="7">
@@ -25962,11 +25921,11 @@
       <c r="L501" s="9">
         <v>1080</v>
       </c>
-      <c r="M501" s="54"/>
+      <c r="M501" s="48"/>
       <c r="N501" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O501" s="55"/>
+      <c r="O501" s="49"/>
     </row>
     <row r="502" customFormat="1" spans="1:15">
       <c r="A502" s="7">
@@ -26004,9 +25963,9 @@
         <v>1980</v>
       </c>
       <c r="L502" s="9"/>
-      <c r="M502" s="54"/>
+      <c r="M502" s="48"/>
       <c r="N502" s="8"/>
-      <c r="O502" s="55"/>
+      <c r="O502" s="49"/>
     </row>
     <row r="503" spans="1:15">
       <c r="A503" s="7" t="s">
@@ -26033,7 +25992,7 @@
       <c r="H503" s="10">
         <v>2.23</v>
       </c>
-      <c r="I503" s="27" t="s">
+      <c r="I503" s="25" t="s">
         <v>1272</v>
       </c>
       <c r="J503" s="9" t="s">
@@ -26051,25 +26010,25 @@
     </row>
     <row r="504" s="2" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A504" s="7"/>
-      <c r="B504" s="46"/>
-      <c r="H504" s="47"/>
-      <c r="M504" s="47"/>
-      <c r="N504" s="46"/>
-      <c r="O504" s="46"/>
+      <c r="B504" s="40"/>
+      <c r="H504" s="41"/>
+      <c r="M504" s="41"/>
+      <c r="N504" s="40"/>
+      <c r="O504" s="40"/>
     </row>
     <row r="505" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A505" s="48"/>
-      <c r="B505" s="49"/>
-      <c r="H505" s="50"/>
-      <c r="M505" s="50"/>
-      <c r="N505" s="49"/>
-      <c r="O505" s="49"/>
+      <c r="A505" s="42"/>
+      <c r="B505" s="43"/>
+      <c r="H505" s="44"/>
+      <c r="M505" s="44"/>
+      <c r="N505" s="43"/>
+      <c r="O505" s="43"/>
     </row>
     <row r="506" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A506" s="51" t="s">
+      <c r="A506" s="45" t="s">
         <v>1274</v>
       </c>
-      <c r="B506" s="46"/>
+      <c r="B506" s="40"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -26081,14 +26040,14 @@
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
-      <c r="N506" s="46"/>
-      <c r="O506" s="56"/>
+      <c r="N506" s="40"/>
+      <c r="O506" s="50"/>
     </row>
     <row r="507" s="2" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A507" s="51" t="s">
+      <c r="A507" s="45" t="s">
         <v>1275</v>
       </c>
-      <c r="B507" s="46"/>
+      <c r="B507" s="40"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -26100,14 +26059,14 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
-      <c r="N507" s="46"/>
-      <c r="O507" s="46"/>
+      <c r="N507" s="40"/>
+      <c r="O507" s="40"/>
     </row>
     <row r="508" s="2" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A508" s="51" t="s">
+      <c r="A508" s="45" t="s">
         <v>1276</v>
       </c>
-      <c r="B508" s="46"/>
+      <c r="B508" s="40"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -26119,11 +26078,11 @@
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
-      <c r="N508" s="46"/>
-      <c r="O508" s="46"/>
+      <c r="N508" s="40"/>
+      <c r="O508" s="40"/>
     </row>
     <row r="509" s="5" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A509" s="51" t="s">
+      <c r="A509" s="45" t="s">
         <v>1277</v>
       </c>
       <c r="B509" s="2"/>
@@ -26138,13 +26097,13 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
-      <c r="N509" s="46"/>
+      <c r="N509" s="40"/>
     </row>
     <row r="510" s="2" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A510" s="51" t="s">
+      <c r="A510" s="45" t="s">
         <v>1278</v>
       </c>
-      <c r="B510" s="46"/>
+      <c r="B510" s="40"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -26156,11 +26115,11 @@
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
       <c r="M510" s="2"/>
-      <c r="N510" s="46"/>
-      <c r="O510" s="46"/>
+      <c r="N510" s="40"/>
+      <c r="O510" s="40"/>
     </row>
     <row r="511" s="5" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A511" s="51" t="s">
+      <c r="A511" s="45" t="s">
         <v>1279</v>
       </c>
       <c r="B511" s="2"/>
@@ -26175,8 +26134,8 @@
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
-      <c r="N511" s="46"/>
-      <c r="O511" s="57"/>
+      <c r="N511" s="40"/>
+      <c r="O511" s="51"/>
     </row>
     <row r="512" s="6" customFormat="1" spans="1:14">
       <c r="A512" s="14" t="s">
@@ -26206,16 +26165,16 @@
       <c r="I512" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J512" s="23" t="s">
+      <c r="J512" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K512" s="23" t="s">
+      <c r="K512" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L512" s="23" t="s">
+      <c r="L512" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M512" s="24" t="s">
+      <c r="M512" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N512" s="14" t="s">
